--- a/src/test/resources/test_data2.xlsx
+++ b/src/test/resources/test_data2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matve\IdeaProjects\Ruslan6SQA\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBE1064-847A-45E6-8018-9F064570C220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B0EFB0-D2F1-445D-BFB9-22F3DC4BB8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="2175" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="6465" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C2" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,5 +520,6 @@
     <hyperlink ref="C5" r:id="rId3" xr:uid="{ABA39F49-65D8-4037-AB3F-702295736B82}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>